--- a/Крылов 20 вариантов/Ответы.xlsx
+++ b/Крылов 20 вариантов/Ответы.xlsx
@@ -1,43 +1,249 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\si655\OneDrive\Документы\Informatica_EGE\Крылов 20 вариантов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stepan_\Documents\Informatica\Informatica_EGE\Крылов 20 вариантов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4532F3-88A9-4683-8372-02A1758046E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FC302A-755C-4EA0-9F0A-BF87A3450FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Мои ответы" sheetId="1" r:id="rId1"/>
+    <sheet name="Авторские" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>номер</t>
   </si>
   <si>
     <t>1 вариант</t>
+  </si>
+  <si>
+    <t>704 197847</t>
+  </si>
+  <si>
+    <t>2571 761</t>
+  </si>
+  <si>
+    <t>98 99</t>
+  </si>
+  <si>
+    <t>700002 27
+700003 37
+700005 6087
+700007 77
+700008 29167</t>
+  </si>
+  <si>
+    <t>9998 3748</t>
+  </si>
+  <si>
+    <t>43792 148382
+7198 20920</t>
+  </si>
+  <si>
+    <t>yxzw</t>
+  </si>
+  <si>
+    <t>Первичные</t>
+  </si>
+  <si>
+    <t>Вторичные</t>
+  </si>
+  <si>
+    <t>22/29</t>
+  </si>
+  <si>
+    <t>83/100</t>
+  </si>
+  <si>
+    <t>1952 2364</t>
+  </si>
+  <si>
+    <t>43592 148953
+7266 18292</t>
+  </si>
+  <si>
+    <t>2 вариант</t>
+  </si>
+  <si>
+    <t>3 вариант</t>
+  </si>
+  <si>
+    <t>4 вариант</t>
+  </si>
+  <si>
+    <t>5 вариант</t>
+  </si>
+  <si>
+    <t>6 вариант</t>
+  </si>
+  <si>
+    <t>7 вариант</t>
+  </si>
+  <si>
+    <t>8 вариант</t>
+  </si>
+  <si>
+    <t>9 вариант</t>
+  </si>
+  <si>
+    <t>10 вариант</t>
+  </si>
+  <si>
+    <t>11 вариант</t>
+  </si>
+  <si>
+    <t>12 вариант</t>
+  </si>
+  <si>
+    <t>13 вариант</t>
+  </si>
+  <si>
+    <t>14 вариант</t>
+  </si>
+  <si>
+    <t>15 вариант</t>
+  </si>
+  <si>
+    <t>16 вариант</t>
+  </si>
+  <si>
+    <t>17 вариант</t>
+  </si>
+  <si>
+    <t>18 вариант</t>
+  </si>
+  <si>
+    <t>19 вариант</t>
+  </si>
+  <si>
+    <t>20 вариант</t>
+  </si>
+  <si>
+    <t>yzwx</t>
+  </si>
+  <si>
+    <t>679 5644</t>
+  </si>
+  <si>
+    <t>2817 788</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>152 153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>1000008 500006
+1000009 3706
+1000013 142866
+1000028 500016
+1000029 333346</t>
+  </si>
+  <si>
+    <t>1804 4436</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>010001</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11664</t>
+  </si>
+  <si>
+    <t>3675</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>62979</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>49317 150225
+13311 10797</t>
+  </si>
+  <si>
+    <t>27/29</t>
+  </si>
+  <si>
+    <t>95/100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +251,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -66,14 +309,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,20 +403,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -163,12 +446,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -207,311 +490,904 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="10">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C4" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="3">
+        <v>11110</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C6" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C8" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>19899</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C9" s="10">
+        <v>11664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>19613</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C10" s="10">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B11" s="13">
+        <v>132</v>
+      </c>
+      <c r="C11" s="13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B12" s="10">
+        <v>137</v>
+      </c>
+      <c r="C12" s="10">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B13" s="10">
+        <v>221111</v>
+      </c>
+      <c r="C13" s="10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B14" s="3">
+        <v>1663</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B15" s="3">
+        <v>5768</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B16" s="3">
+        <v>82</v>
+      </c>
+      <c r="C16" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B17" s="3">
+        <v>165968</v>
+      </c>
+      <c r="C17" s="10">
+        <v>62979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B20" s="3">
+        <v>96</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B24" s="3">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B25" s="5">
+        <v>74</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9">
         <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3792E657-23F3-4F2D-A009-FC7C3F9692D8}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>79</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11110</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3250</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>19613</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>252</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>137</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>221111</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1663</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5768</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>82</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>165968</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>96</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>131</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
